--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,214 +43,217 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>loose</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lasted</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -259,39 +262,30 @@
     <t>use</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
+    <t>expected</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -304,6 +298,9 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -331,12 +328,12 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -716,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,13 +782,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -877,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -885,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,16 +903,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -935,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.6451612903225806</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,16 +1003,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1027,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7419354838709677</v>
+        <v>0.78125</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.625</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7407407407407407</v>
+        <v>0.7766990291262136</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>0.453125</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.734375</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.3768115942028986</v>
+        <v>0.515625</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7184466019417476</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C11">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1203,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.340983606557377</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L11">
-        <v>416</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>416</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>804</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7183098591549296</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.3041606886657102</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L12">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="M12">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>485</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1282,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.2593360995850623</v>
+        <v>0.2959770114942529</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>357</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6904761904761905</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.2583333333333334</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6896551724137931</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1403,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.225</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>0.1498470948012232</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,16 +1503,16 @@
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.140625</v>
+        <v>0.1746987951807229</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1535,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6554054054054054</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C18">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.1164021164021164</v>
+        <v>0.1171875</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6181818181818182</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.09236947791164658</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.07975460122699386</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L20">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1677,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1050</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1682,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5798319327731093</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,19 +1700,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.04456824512534819</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1727,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>343</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>0.03309539260220636</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1777,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1490</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5370370370370371</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,31 +1800,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K23">
-        <v>0.02130492676431425</v>
+        <v>0.04178272980501393</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>735</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5263157894736842</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,7 +1850,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24">
+        <v>0.03893575600259572</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1481</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5111111111111111</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5101449275362319</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C27">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1965,13 +1986,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4842105263157895</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1983,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1991,13 +2012,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4819277108433735</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2009,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2017,13 +2038,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4814814814814815</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2035,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,13 +2064,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4761904761904762</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2061,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2069,13 +2090,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4173228346456693</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2087,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2095,13 +2116,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4047619047619048</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2113,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2121,13 +2142,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3818181818181818</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2139,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2147,13 +2168,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3720930232558139</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2165,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2173,13 +2194,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3673469387755102</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2191,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2199,13 +2220,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3666666666666666</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2217,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2225,13 +2246,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.360655737704918</v>
+        <v>0.390625</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2251,13 +2272,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.359375</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2269,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2277,13 +2298,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3541666666666667</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2303,13 +2324,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3392857142857143</v>
+        <v>0.35</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2321,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2355,13 +2376,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3258426966292135</v>
+        <v>0.3203125</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2373,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2381,13 +2402,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3080568720379147</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C45">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2399,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2407,13 +2428,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2920792079207921</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2425,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2433,13 +2454,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2890625</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2451,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2459,13 +2480,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2835820895522388</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2477,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2485,13 +2506,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2735042735042735</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2503,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2511,13 +2532,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2653061224489796</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2529,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2537,13 +2558,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2319587628865979</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2555,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2563,13 +2584,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2318840579710145</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2581,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2589,13 +2610,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2173913043478261</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2607,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2615,13 +2636,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2065217391304348</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2633,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>219</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2641,13 +2662,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2027027027027027</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2659,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2667,13 +2688,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.189873417721519</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2685,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>256</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2693,13 +2714,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1868131868131868</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2711,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2719,13 +2740,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1851851851851852</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2737,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>88</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2745,13 +2766,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1752577319587629</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2763,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>80</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2771,13 +2792,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1740506329113924</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C60">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2789,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>261</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2797,13 +2818,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1714285714285714</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2815,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2823,13 +2844,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1706231454005935</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C62">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2841,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>559</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2875,13 +2896,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1568627450980392</v>
+        <v>0.16</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2893,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2901,13 +2922,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1525423728813559</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2919,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2927,13 +2948,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1495327102803738</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2945,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2953,13 +2974,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1485714285714286</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2971,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2979,13 +3000,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1484375</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2997,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3005,13 +3026,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1464968152866242</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3023,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3031,25 +3052,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1412103746397695</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C70">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>298</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3057,13 +3078,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1365638766519824</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C71">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3075,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>392</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3083,13 +3104,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1307692307692308</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3101,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>113</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3109,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1147540983606557</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C73">
         <v>21</v>
@@ -3127,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3135,13 +3156,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1048387096774194</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3153,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3161,13 +3182,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1041095890410959</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C75">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3179,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3187,13 +3208,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09424083769633508</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3205,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>173</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3213,25 +3234,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09042553191489362</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3239,13 +3260,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08614232209737828</v>
+        <v>0.078125</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3257,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>244</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3265,25 +3286,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06578947368421052</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C79">
         <v>40</v>
       </c>
       <c r="D79">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3291,13 +3312,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.06197183098591549</v>
+        <v>0.0645879732739421</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3309,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>333</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3317,13 +3338,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06013363028953229</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3335,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>422</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3343,13 +3364,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05714285714285714</v>
+        <v>0.05352112676056338</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3361,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>264</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3369,25 +3390,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05696202531645569</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>298</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3395,77 +3416,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04418604651162791</v>
+        <v>0.02398989898989899</v>
       </c>
       <c r="C84">
         <v>19</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E84">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F84">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.02911392405063291</v>
-      </c>
-      <c r="C85">
-        <v>23</v>
-      </c>
-      <c r="D85">
-        <v>27</v>
-      </c>
-      <c r="E85">
-        <v>0.15</v>
-      </c>
-      <c r="F85">
-        <v>0.85</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.02595419847328244</v>
-      </c>
-      <c r="C86">
-        <v>17</v>
-      </c>
-      <c r="D86">
-        <v>17</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>638</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
